--- a/data/PYPSA_case9_combined.xlsx
+++ b/data/PYPSA_case9_combined.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samho\Desktop\PhD\DC OPF\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36009765-0AD5-4FF7-AE4E-2C8D62DC0E9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{393DABEA-C63A-4BDE-A485-4906809AB7F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" tabRatio="700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" tabRatio="700" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hvdc" sheetId="12" r:id="rId1"/>
@@ -1270,7 +1270,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F936777E-A678-467D-AA50-B7F1A2F38BF3}">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -5817,8 +5817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M106"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H111" sqref="H111"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/data/PYPSA_case9_combined.xlsx
+++ b/data/PYPSA_case9_combined.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samho\Desktop\PhD\DC OPF\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{393DABEA-C63A-4BDE-A485-4906809AB7F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36009765-0AD5-4FF7-AE4E-2C8D62DC0E9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" tabRatio="700" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" tabRatio="700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hvdc" sheetId="12" r:id="rId1"/>
@@ -1270,7 +1270,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F936777E-A678-467D-AA50-B7F1A2F38BF3}">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -5817,8 +5817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T24" sqref="T24"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H111" sqref="H111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/data/PYPSA_case9_combined.xlsx
+++ b/data/PYPSA_case9_combined.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samho\Desktop\PhD\DC OPF\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BAF830D-4CFD-4BA7-ACFE-D8C3118FD451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C9FB11-E774-421A-A945-CF059901C86F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" tabRatio="700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="262">
   <si>
     <t>name</t>
   </si>
@@ -217,22 +217,616 @@
     <t>D2</t>
   </si>
   <si>
+    <t>D3</t>
+  </si>
+  <si>
     <t>y</t>
   </si>
   <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>Non-GB</t>
+  </si>
+  <si>
+    <t>Belgium_HVDC</t>
+  </si>
+  <si>
+    <t>France1_HVDC</t>
+  </si>
+  <si>
+    <t>France2_HVDC</t>
+  </si>
+  <si>
+    <t>Ireland_HVDC</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>D12</t>
+  </si>
+  <si>
+    <t>D13</t>
+  </si>
+  <si>
+    <t>D14</t>
+  </si>
+  <si>
+    <t>D15</t>
+  </si>
+  <si>
+    <t>D16</t>
+  </si>
+  <si>
+    <t>D17</t>
+  </si>
+  <si>
+    <t>D18</t>
+  </si>
+  <si>
+    <t>D19</t>
+  </si>
+  <si>
+    <t>D20</t>
+  </si>
+  <si>
+    <t>D21</t>
+  </si>
+  <si>
+    <t>D22</t>
+  </si>
+  <si>
+    <t>D23</t>
+  </si>
+  <si>
+    <t>D24</t>
+  </si>
+  <si>
+    <t>D25</t>
+  </si>
+  <si>
+    <t>D26</t>
+  </si>
+  <si>
+    <t>D27</t>
+  </si>
+  <si>
+    <t>D28</t>
+  </si>
+  <si>
+    <t>D29</t>
+  </si>
+  <si>
     <t>L0</t>
   </si>
   <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>L3</t>
+  </si>
+  <si>
+    <t>L4</t>
+  </si>
+  <si>
+    <t>L5</t>
+  </si>
+  <si>
+    <t>L6</t>
+  </si>
+  <si>
+    <t>L7</t>
+  </si>
+  <si>
+    <t>L8</t>
+  </si>
+  <si>
+    <t>L9</t>
+  </si>
+  <si>
+    <t>L10</t>
+  </si>
+  <si>
+    <t>L11</t>
+  </si>
+  <si>
+    <t>L12</t>
+  </si>
+  <si>
+    <t>L13</t>
+  </si>
+  <si>
+    <t>L14</t>
+  </si>
+  <si>
+    <t>L15</t>
+  </si>
+  <si>
+    <t>L16</t>
+  </si>
+  <si>
+    <t>L17</t>
+  </si>
+  <si>
+    <t>L18</t>
+  </si>
+  <si>
+    <t>L19</t>
+  </si>
+  <si>
+    <t>L20</t>
+  </si>
+  <si>
+    <t>L21</t>
+  </si>
+  <si>
+    <t>L22</t>
+  </si>
+  <si>
+    <t>L23</t>
+  </si>
+  <si>
+    <t>L24</t>
+  </si>
+  <si>
+    <t>L25</t>
+  </si>
+  <si>
+    <t>L26</t>
+  </si>
+  <si>
+    <t>L27</t>
+  </si>
+  <si>
+    <t>L28</t>
+  </si>
+  <si>
+    <t>L29</t>
+  </si>
+  <si>
+    <t>L30</t>
+  </si>
+  <si>
+    <t>L31</t>
+  </si>
+  <si>
+    <t>L32</t>
+  </si>
+  <si>
+    <t>L33</t>
+  </si>
+  <si>
+    <t>L34</t>
+  </si>
+  <si>
+    <t>L35</t>
+  </si>
+  <si>
+    <t>L36</t>
+  </si>
+  <si>
+    <t>L37</t>
+  </si>
+  <si>
+    <t>L38</t>
+  </si>
+  <si>
+    <t>L39</t>
+  </si>
+  <si>
+    <t>L40</t>
+  </si>
+  <si>
+    <t>L41</t>
+  </si>
+  <si>
+    <t>L42</t>
+  </si>
+  <si>
+    <t>L43</t>
+  </si>
+  <si>
+    <t>L44</t>
+  </si>
+  <si>
+    <t>L45</t>
+  </si>
+  <si>
+    <t>L46</t>
+  </si>
+  <si>
+    <t>L47</t>
+  </si>
+  <si>
+    <t>L48</t>
+  </si>
+  <si>
+    <t>L49</t>
+  </si>
+  <si>
+    <t>L50</t>
+  </si>
+  <si>
+    <t>L51</t>
+  </si>
+  <si>
+    <t>L52</t>
+  </si>
+  <si>
+    <t>L53</t>
+  </si>
+  <si>
+    <t>L54</t>
+  </si>
+  <si>
+    <t>L55</t>
+  </si>
+  <si>
+    <t>L56</t>
+  </si>
+  <si>
+    <t>L57</t>
+  </si>
+  <si>
+    <t>L58</t>
+  </si>
+  <si>
+    <t>L59</t>
+  </si>
+  <si>
+    <t>L60</t>
+  </si>
+  <si>
+    <t>L61</t>
+  </si>
+  <si>
+    <t>L62</t>
+  </si>
+  <si>
+    <t>L63</t>
+  </si>
+  <si>
+    <t>L64</t>
+  </si>
+  <si>
+    <t>L65</t>
+  </si>
+  <si>
+    <t>L66</t>
+  </si>
+  <si>
+    <t>L67</t>
+  </si>
+  <si>
+    <t>L68</t>
+  </si>
+  <si>
+    <t>L69</t>
+  </si>
+  <si>
+    <t>L70</t>
+  </si>
+  <si>
+    <t>L71</t>
+  </si>
+  <si>
+    <t>L72</t>
+  </si>
+  <si>
+    <t>L73</t>
+  </si>
+  <si>
+    <t>L74</t>
+  </si>
+  <si>
+    <t>L75</t>
+  </si>
+  <si>
+    <t>L76</t>
+  </si>
+  <si>
+    <t>L77</t>
+  </si>
+  <si>
+    <t>L78</t>
+  </si>
+  <si>
+    <t>L79</t>
+  </si>
+  <si>
+    <t>L80</t>
+  </si>
+  <si>
+    <t>L81</t>
+  </si>
+  <si>
+    <t>L82</t>
+  </si>
+  <si>
+    <t>L83</t>
+  </si>
+  <si>
+    <t>L84</t>
+  </si>
+  <si>
+    <t>L85</t>
+  </si>
+  <si>
+    <t>L86</t>
+  </si>
+  <si>
+    <t>L87</t>
+  </si>
+  <si>
+    <t>L88</t>
+  </si>
+  <si>
+    <t>L89</t>
+  </si>
+  <si>
+    <t>L90</t>
+  </si>
+  <si>
+    <t>L91</t>
+  </si>
+  <si>
+    <t>L92</t>
+  </si>
+  <si>
+    <t>L93</t>
+  </si>
+  <si>
+    <t>L94</t>
+  </si>
+  <si>
+    <t>L95</t>
+  </si>
+  <si>
+    <t>L96</t>
+  </si>
+  <si>
+    <t>L97</t>
+  </si>
+  <si>
+    <t>L98</t>
+  </si>
+  <si>
+    <t>L99</t>
+  </si>
+  <si>
+    <t>L100</t>
+  </si>
+  <si>
+    <t>L101</t>
+  </si>
+  <si>
+    <t>L102</t>
+  </si>
+  <si>
+    <t>L103</t>
+  </si>
+  <si>
+    <t>L104</t>
+  </si>
+  <si>
+    <t>Netherlands_HVDC</t>
+  </si>
+  <si>
     <t>G2</t>
   </si>
   <si>
-    <t>marginal_cost</t>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>G4</t>
+  </si>
+  <si>
+    <t>G5</t>
+  </si>
+  <si>
+    <t>G6</t>
+  </si>
+  <si>
+    <t>G8</t>
+  </si>
+  <si>
+    <t>G9</t>
+  </si>
+  <si>
+    <t>G10</t>
+  </si>
+  <si>
+    <t>G11</t>
+  </si>
+  <si>
+    <t>G12</t>
+  </si>
+  <si>
+    <t>G13</t>
+  </si>
+  <si>
+    <t>G14</t>
+  </si>
+  <si>
+    <t>G16</t>
+  </si>
+  <si>
+    <t>G17</t>
+  </si>
+  <si>
+    <t>G18</t>
+  </si>
+  <si>
+    <t>G19</t>
+  </si>
+  <si>
+    <t>G20</t>
+  </si>
+  <si>
+    <t>G21</t>
+  </si>
+  <si>
+    <t>G22</t>
+  </si>
+  <si>
+    <t>G24</t>
+  </si>
+  <si>
+    <t>G25</t>
+  </si>
+  <si>
+    <t>G26</t>
+  </si>
+  <si>
+    <t>G27</t>
+  </si>
+  <si>
+    <t>G28</t>
+  </si>
+  <si>
+    <t>Western_Link</t>
+  </si>
+  <si>
+    <t>N_Ireland_HVDC</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>MTDC</t>
   </si>
   <si>
     <t>Beauly</t>
   </si>
   <si>
     <t>Peterhead</t>
+  </si>
+  <si>
+    <t>Errochty</t>
+  </si>
+  <si>
+    <t>Denny/Bonnybridge</t>
+  </si>
+  <si>
+    <t>Neilston</t>
+  </si>
+  <si>
+    <t>Strathaven</t>
+  </si>
+  <si>
+    <t>Torness</t>
+  </si>
+  <si>
+    <t>Eccles</t>
+  </si>
+  <si>
+    <t>Harker</t>
+  </si>
+  <si>
+    <t>Stella West</t>
+  </si>
+  <si>
+    <t>Penwortham</t>
+  </si>
+  <si>
+    <t>Deeside</t>
+  </si>
+  <si>
+    <t>Daines</t>
+  </si>
+  <si>
+    <t>Th. Marsh/Stocksbridge</t>
+  </si>
+  <si>
+    <t>Thornton/Drax/Eggborough</t>
+  </si>
+  <si>
+    <t>Keadby</t>
+  </si>
+  <si>
+    <t>Ratcliffe</t>
+  </si>
+  <si>
+    <t>Feckenham</t>
+  </si>
+  <si>
+    <t>Walpole</t>
+  </si>
+  <si>
+    <t>Bramford</t>
+  </si>
+  <si>
+    <t>Pelham</t>
+  </si>
+  <si>
+    <t>Sundon/East Claydon</t>
+  </si>
+  <si>
+    <t>Melksham</t>
+  </si>
+  <si>
+    <t>Bramley</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Kemsley</t>
+  </si>
+  <si>
+    <t>Sellindge</t>
+  </si>
+  <si>
+    <t>Lovedean</t>
+  </si>
+  <si>
+    <t>S.W.Penisula</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>France1</t>
+  </si>
+  <si>
+    <t>France2</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>N. Ireland</t>
   </si>
   <si>
     <t>place</t>
@@ -341,7 +935,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -355,6 +949,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -671,15 +1268,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F936777E-A678-467D-AA50-B7F1A2F38BF3}">
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -723,7 +1320,437 @@
         <v>2</v>
       </c>
       <c r="O1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>5.8599999999999999E-2</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>2400</v>
+      </c>
+      <c r="I2">
+        <v>2200</v>
+      </c>
+      <c r="J2">
+        <v>-360</v>
+      </c>
+      <c r="K2">
+        <v>360</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1E-4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B3">
+        <v>29</v>
+      </c>
+      <c r="C3">
+        <v>25</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>5.8599999999999999E-2</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>1100</v>
+      </c>
+      <c r="I3">
+        <v>1000</v>
+      </c>
+      <c r="J3">
+        <v>-360</v>
+      </c>
+      <c r="K3">
+        <v>360</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1E-4</v>
+      </c>
+      <c r="N3" t="s">
         <v>60</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>20</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4">
+        <v>30</v>
+      </c>
+      <c r="C4">
+        <v>26</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>5.8599999999999999E-2</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>600</v>
+      </c>
+      <c r="I4">
+        <v>500</v>
+      </c>
+      <c r="J4">
+        <v>-360</v>
+      </c>
+      <c r="K4">
+        <v>360</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1E-4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>60</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>20</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5">
+        <v>31</v>
+      </c>
+      <c r="C5">
+        <v>26</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>5.8599999999999999E-2</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>600</v>
+      </c>
+      <c r="I5">
+        <v>500</v>
+      </c>
+      <c r="J5">
+        <v>-360</v>
+      </c>
+      <c r="K5">
+        <v>360</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1E-4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>60</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>15</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6">
+        <v>32</v>
+      </c>
+      <c r="C6">
+        <v>27</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>5.8599999999999999E-2</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>1100</v>
+      </c>
+      <c r="I6">
+        <v>1000</v>
+      </c>
+      <c r="J6">
+        <v>-360</v>
+      </c>
+      <c r="K6">
+        <v>360</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1E-4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>60</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>15</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7">
+        <v>33</v>
+      </c>
+      <c r="C7">
+        <v>11</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>5.8599999999999999E-2</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>2100</v>
+      </c>
+      <c r="I7">
+        <v>2000</v>
+      </c>
+      <c r="J7">
+        <v>-360</v>
+      </c>
+      <c r="K7">
+        <v>360</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1E-4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>60</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>7</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B8">
+        <v>34</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>5.8599999999999999E-2</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>1100</v>
+      </c>
+      <c r="I8">
+        <v>1000</v>
+      </c>
+      <c r="J8">
+        <v>-360</v>
+      </c>
+      <c r="K8">
+        <v>360</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1E-4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>60</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>7</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>223</v>
+      </c>
+      <c r="B9" t="s">
+        <v>224</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>5.8599999999999999E-2</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>2400</v>
+      </c>
+      <c r="I9">
+        <v>2200</v>
+      </c>
+      <c r="J9">
+        <v>-360</v>
+      </c>
+      <c r="K9">
+        <v>360</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1E-4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>225</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -736,8 +1763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:Y25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -820,10 +1847,10 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>59</v>
+        <v>197</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -887,73 +1914,1568 @@
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B3" s="5"/>
+      <c r="A3">
+        <v>23</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>139.52043625269931</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>139.52043625269931</v>
+      </c>
+      <c r="I3">
+        <v>-300</v>
+      </c>
+      <c r="J3">
+        <v>300</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>1E-4</v>
+      </c>
+      <c r="S3">
+        <v>50</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>42.857142857142847</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B4" s="5"/>
+      <c r="A4">
+        <v>12</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>59.297925572854901</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4">
+        <v>59.297925572854901</v>
+      </c>
+      <c r="I4">
+        <v>-300</v>
+      </c>
+      <c r="J4">
+        <v>300</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>1E-4</v>
+      </c>
+      <c r="S4">
+        <v>50</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>52.92307692307692</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B5" s="5"/>
+      <c r="A5">
+        <v>11</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>103.99917117718</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>103.99917117718</v>
+      </c>
+      <c r="I5">
+        <v>-300</v>
+      </c>
+      <c r="J5">
+        <v>300</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>1E-4</v>
+      </c>
+      <c r="S5">
+        <v>50</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>48.5</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B6" s="5"/>
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>11.233998980201189</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>10</v>
+      </c>
+      <c r="H6">
+        <v>11.233998980201189</v>
+      </c>
+      <c r="I6">
+        <v>-300</v>
+      </c>
+      <c r="J6">
+        <v>300</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>1E-4</v>
+      </c>
+      <c r="S6">
+        <v>50</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B7" s="5"/>
+      <c r="A7">
+        <v>17</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>16.656760484764241</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>10</v>
+      </c>
+      <c r="H7">
+        <v>16.656760484764241</v>
+      </c>
+      <c r="I7">
+        <v>-300</v>
+      </c>
+      <c r="J7">
+        <v>300</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>1E-4</v>
+      </c>
+      <c r="S7">
+        <v>50</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>11</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B8" s="5"/>
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>33.358807644056668</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>10</v>
+      </c>
+      <c r="H8">
+        <v>33.358807644056668</v>
+      </c>
+      <c r="I8">
+        <v>-300</v>
+      </c>
+      <c r="J8">
+        <v>300</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>1E-4</v>
+      </c>
+      <c r="S8">
+        <v>50</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>64.666666666666671</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B9" s="5"/>
+      <c r="A9">
+        <v>15</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>120.078546752948</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>10</v>
+      </c>
+      <c r="H9">
+        <v>120.078546752948</v>
+      </c>
+      <c r="I9">
+        <v>-300</v>
+      </c>
+      <c r="J9">
+        <v>300</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>1E-4</v>
+      </c>
+      <c r="S9">
+        <v>50</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>56.111111111111107</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B10" s="5"/>
+      <c r="A10">
+        <v>25</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>126.95381124067301</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>10</v>
+      </c>
+      <c r="H10">
+        <v>126.95381124067301</v>
+      </c>
+      <c r="I10">
+        <v>-300</v>
+      </c>
+      <c r="J10">
+        <v>300</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>1E-4</v>
+      </c>
+      <c r="S10">
+        <v>50</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>58.545454545454547</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B11" s="5"/>
+      <c r="A11">
+        <v>24</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>43.198320587179147</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+      <c r="H11">
+        <v>43.198320587179147</v>
+      </c>
+      <c r="I11">
+        <v>-300</v>
+      </c>
+      <c r="J11">
+        <v>300</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>1E-4</v>
+      </c>
+      <c r="S11">
+        <v>50</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>29.75</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B12" s="5"/>
+      <c r="A12">
+        <v>27</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>68.549705829315727</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>10</v>
+      </c>
+      <c r="H12">
+        <v>68.549705829315727</v>
+      </c>
+      <c r="I12">
+        <v>-300</v>
+      </c>
+      <c r="J12">
+        <v>300</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>1E-4</v>
+      </c>
+      <c r="S12">
+        <v>50</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>42.857142857142847</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B13" s="5"/>
+      <c r="A13">
+        <v>22</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>126.8229845228915</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>10</v>
+      </c>
+      <c r="H13">
+        <v>126.8229845228915</v>
+      </c>
+      <c r="I13">
+        <v>-300</v>
+      </c>
+      <c r="J13">
+        <v>300</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>1E-4</v>
+      </c>
+      <c r="S13">
+        <v>50</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>52.592592592592602</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B14" s="5"/>
+      <c r="A14">
+        <v>20</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>118.9665174589454</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>10</v>
+      </c>
+      <c r="H14">
+        <v>118.9665174589454</v>
+      </c>
+      <c r="I14">
+        <v>-300</v>
+      </c>
+      <c r="J14">
+        <v>300</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>1E-4</v>
+      </c>
+      <c r="S14">
+        <v>50</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>75</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B15" s="5"/>
+      <c r="A15">
+        <v>10</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>402.92245791453718</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>10</v>
+      </c>
+      <c r="H15">
+        <v>402.92245791453718</v>
+      </c>
+      <c r="I15">
+        <v>-300</v>
+      </c>
+      <c r="J15">
+        <v>300</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>1E-4</v>
+      </c>
+      <c r="S15">
+        <v>50</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>50.571428571428569</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B16" s="5"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B17" s="5"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B18" s="5"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B19" s="5"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B20" s="5"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B21" s="5"/>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B22" s="5"/>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B23" s="5"/>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B24" s="5"/>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B25" s="5"/>
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>121.8616766963474</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>10</v>
+      </c>
+      <c r="H16">
+        <v>121.8616766963474</v>
+      </c>
+      <c r="I16">
+        <v>-300</v>
+      </c>
+      <c r="J16">
+        <v>300</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>1E-4</v>
+      </c>
+      <c r="S16">
+        <v>50</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>48.5</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>127.3959985959805</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>10</v>
+      </c>
+      <c r="H17">
+        <v>127.3959985959805</v>
+      </c>
+      <c r="I17">
+        <v>-300</v>
+      </c>
+      <c r="J17">
+        <v>300</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>1E-4</v>
+      </c>
+      <c r="S17">
+        <v>50</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>61</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>28</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>142.44396422196419</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>10</v>
+      </c>
+      <c r="H18">
+        <v>142.44396422196419</v>
+      </c>
+      <c r="I18">
+        <v>-300</v>
+      </c>
+      <c r="J18">
+        <v>300</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>1E-4</v>
+      </c>
+      <c r="S18">
+        <v>50</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>33.615384615384613</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>26</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>664.58871897101574</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>10</v>
+      </c>
+      <c r="H19">
+        <v>664.58871897101574</v>
+      </c>
+      <c r="I19">
+        <v>-300</v>
+      </c>
+      <c r="J19">
+        <v>300</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>1E-4</v>
+      </c>
+      <c r="S19">
+        <v>50</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>24.5</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>9</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>189.98233956194159</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>10</v>
+      </c>
+      <c r="H20">
+        <v>189.98233956194159</v>
+      </c>
+      <c r="I20">
+        <v>-300</v>
+      </c>
+      <c r="J20">
+        <v>300</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>1E-4</v>
+      </c>
+      <c r="S20">
+        <v>50</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>16.45454545454545</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>47.605232416761929</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>10</v>
+      </c>
+      <c r="H21">
+        <v>47.605232416761929</v>
+      </c>
+      <c r="I21">
+        <v>-300</v>
+      </c>
+      <c r="J21">
+        <v>300</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>1E-4</v>
+      </c>
+      <c r="S21">
+        <v>50</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>36</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>13</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>14.38123743707459</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>10</v>
+      </c>
+      <c r="H22">
+        <v>14.38123743707459</v>
+      </c>
+      <c r="I22">
+        <v>-300</v>
+      </c>
+      <c r="J22">
+        <v>300</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>1E-4</v>
+      </c>
+      <c r="S22">
+        <v>50</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>43.333333333333343</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>14</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>142.1189106556715</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>10</v>
+      </c>
+      <c r="H23">
+        <v>142.1189106556715</v>
+      </c>
+      <c r="I23">
+        <v>-300</v>
+      </c>
+      <c r="J23">
+        <v>300</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>1E-4</v>
+      </c>
+      <c r="S23">
+        <v>50</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>38</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>6</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>14.5430799751006</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>10</v>
+      </c>
+      <c r="H24">
+        <v>14.5430799751006</v>
+      </c>
+      <c r="I24">
+        <v>-300</v>
+      </c>
+      <c r="J24">
+        <v>300</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>1E-4</v>
+      </c>
+      <c r="S24">
+        <v>50</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>12.25</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>18</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>98.360429507120827</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>10</v>
+      </c>
+      <c r="H25">
+        <v>98.360429507120827</v>
+      </c>
+      <c r="I25">
+        <v>-300</v>
+      </c>
+      <c r="J25">
+        <v>300</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>1E-4</v>
+      </c>
+      <c r="S25">
+        <v>50</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>56.307692307692307</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1014,7 +3536,7 @@
   <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:M36"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1028,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>261</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1061,7 +3583,7 @@
         <v>18</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
@@ -1069,7 +3591,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>226</v>
       </c>
       <c r="C2">
         <v>275</v>
@@ -1110,7 +3632,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>227</v>
       </c>
       <c r="C3">
         <v>275</v>
@@ -1146,10 +3668,1551 @@
         <v>57.484481440000003</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C4">
+        <v>275</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4">
+        <v>-4.0549073900000003</v>
+      </c>
+      <c r="M4">
+        <v>56.72457146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C5">
+        <v>275</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5">
+        <v>-3.7252819939999999</v>
+      </c>
+      <c r="M5">
+        <v>56.109237149999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>230</v>
+      </c>
+      <c r="C6">
+        <v>400</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6">
+        <v>-4.4147881509999998</v>
+      </c>
+      <c r="M6">
+        <v>55.808831400000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C7">
+        <v>400</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7">
+        <v>-3.8802681350000001</v>
+      </c>
+      <c r="M7">
+        <v>55.753988309999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>232</v>
+      </c>
+      <c r="C8">
+        <v>400</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8">
+        <v>-2.5074484400000001</v>
+      </c>
+      <c r="M8">
+        <v>55.922400719999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>233</v>
+      </c>
+      <c r="C9">
+        <v>400</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9">
+        <v>-2.2298274390000001</v>
+      </c>
+      <c r="M9">
+        <v>55.67725497</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>234</v>
+      </c>
+      <c r="C10">
+        <v>400</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L10">
+        <v>-2.8478196759999999</v>
+      </c>
+      <c r="M10">
+        <v>54.931175639999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>235</v>
+      </c>
+      <c r="C11">
+        <v>400</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="str">
+        <f>E10</f>
+        <v>1</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" ref="F11:K26" si="0">F10</f>
+        <v>1</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="0"/>
+        <v>1.1</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="0"/>
+        <v>1.1</v>
+      </c>
+      <c r="L11">
+        <v>-1.6678395779999999</v>
+      </c>
+      <c r="M11">
+        <v>54.987161610000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>236</v>
+      </c>
+      <c r="C12">
+        <v>400</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" ref="E12:E35" si="1">E11</f>
+        <v>1</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="0"/>
+        <v>1.1</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="0"/>
+        <v>1.1</v>
+      </c>
+      <c r="L12">
+        <v>-2.679880458</v>
+      </c>
+      <c r="M12">
+        <v>53.776909719999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>237</v>
+      </c>
+      <c r="C13">
+        <v>400</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="0"/>
+        <v>1.1</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="0"/>
+        <v>1.1</v>
+      </c>
+      <c r="L13">
+        <v>-3.072207852</v>
+      </c>
+      <c r="M13">
+        <v>53.223030270000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>238</v>
+      </c>
+      <c r="C14">
+        <v>400</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="0"/>
+        <v>1.1</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" si="0"/>
+        <v>1.1</v>
+      </c>
+      <c r="L14">
+        <v>-2.1813954249999998</v>
+      </c>
+      <c r="M14">
+        <v>53.361455669999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>239</v>
+      </c>
+      <c r="C15">
+        <v>400</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="0"/>
+        <v>1.1</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="0"/>
+        <v>1.1</v>
+      </c>
+      <c r="L15">
+        <v>-1.392935875</v>
+      </c>
+      <c r="M15">
+        <v>53.46704192</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>240</v>
+      </c>
+      <c r="C16">
+        <v>400</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="0"/>
+        <v>1.1</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" si="0"/>
+        <v>1.1</v>
+      </c>
+      <c r="L16">
+        <v>-0.98975250000000004</v>
+      </c>
+      <c r="M16">
+        <v>53.833427559999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>241</v>
+      </c>
+      <c r="C17">
+        <v>400</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="0"/>
+        <v>1.1</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" si="0"/>
+        <v>1.1</v>
+      </c>
+      <c r="L17">
+        <v>-0.68386609499999995</v>
+      </c>
+      <c r="M17">
+        <v>53.493435660000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>242</v>
+      </c>
+      <c r="C18">
+        <v>400</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="0"/>
+        <v>1.1</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="K18" t="str">
+        <f t="shared" si="0"/>
+        <v>1.1</v>
+      </c>
+      <c r="L18">
+        <v>-1.0651850549999999</v>
+      </c>
+      <c r="M18">
+        <v>52.876444239999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>243</v>
+      </c>
+      <c r="C19">
+        <v>400</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="0"/>
+        <v>1.1</v>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" si="0"/>
+        <v>1.1</v>
+      </c>
+      <c r="L19">
+        <v>-1.9588405390000001</v>
+      </c>
+      <c r="M19">
+        <v>52.296944240000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>244</v>
+      </c>
+      <c r="C20">
+        <v>400</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="0"/>
+        <v>1.1</v>
+      </c>
+      <c r="J20" t="str">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="K20" t="str">
+        <f t="shared" si="0"/>
+        <v>1.1</v>
+      </c>
+      <c r="L20">
+        <v>0.24497329200000001</v>
+      </c>
+      <c r="M20">
+        <v>52.730476209999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>245</v>
+      </c>
+      <c r="C21">
+        <v>400</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="0"/>
+        <v>1.1</v>
+      </c>
+      <c r="J21" t="str">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="K21" t="str">
+        <f t="shared" si="0"/>
+        <v>1.1</v>
+      </c>
+      <c r="L21">
+        <v>1.159650842</v>
+      </c>
+      <c r="M21">
+        <v>52.088737539999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>246</v>
+      </c>
+      <c r="C22">
+        <v>400</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" si="0"/>
+        <v>1.1</v>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="K22" t="str">
+        <f t="shared" si="0"/>
+        <v>1.1</v>
+      </c>
+      <c r="L22">
+        <v>0.16405351800000001</v>
+      </c>
+      <c r="M22">
+        <v>51.982790680000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>247</v>
+      </c>
+      <c r="C23">
+        <v>400</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" si="0"/>
+        <v>1.1</v>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="K23" t="str">
+        <f t="shared" si="0"/>
+        <v>1.1</v>
+      </c>
+      <c r="L23">
+        <v>-0.63404403399999998</v>
+      </c>
+      <c r="M23">
+        <v>51.957294320000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>248</v>
+      </c>
+      <c r="C24">
+        <v>400</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="I24" t="str">
+        <f t="shared" si="0"/>
+        <v>1.1</v>
+      </c>
+      <c r="J24" t="str">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="K24" t="str">
+        <f t="shared" si="0"/>
+        <v>1.1</v>
+      </c>
+      <c r="L24">
+        <v>-2.2249437049999998</v>
+      </c>
+      <c r="M24">
+        <v>51.419195950000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>249</v>
+      </c>
+      <c r="C25">
+        <v>400</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" si="0"/>
+        <v>1.1</v>
+      </c>
+      <c r="J25" t="str">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="K25" t="str">
+        <f t="shared" si="0"/>
+        <v>1.1</v>
+      </c>
+      <c r="L25">
+        <v>-0.97821945300000002</v>
+      </c>
+      <c r="M25">
+        <v>51.291876670000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>250</v>
+      </c>
+      <c r="C26">
+        <v>400</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="I26" t="str">
+        <f t="shared" si="0"/>
+        <v>1.1</v>
+      </c>
+      <c r="J26" t="str">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="K26" t="str">
+        <f t="shared" si="0"/>
+        <v>1.1</v>
+      </c>
+      <c r="L26">
+        <v>-0.131942956</v>
+      </c>
+      <c r="M26">
+        <v>51.532972579999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>251</v>
+      </c>
+      <c r="C27">
+        <v>400</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" ref="F27:F35" si="2">F26</f>
+        <v>1</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" ref="G27:G35" si="3">G26</f>
+        <v>0</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" ref="H27:H35" si="4">H26</f>
+        <v>0.9</v>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" ref="I27:I35" si="5">I26</f>
+        <v>1.1</v>
+      </c>
+      <c r="J27" t="str">
+        <f t="shared" ref="J27:J35" si="6">J26</f>
+        <v>0.9</v>
+      </c>
+      <c r="K27" t="str">
+        <f t="shared" ref="K27:K35" si="7">K26</f>
+        <v>1.1</v>
+      </c>
+      <c r="L27">
+        <v>0.768177361</v>
+      </c>
+      <c r="M27">
+        <v>51.376011589999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>252</v>
+      </c>
+      <c r="C28">
+        <v>400</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" si="5"/>
+        <v>1.1</v>
+      </c>
+      <c r="J28" t="str">
+        <f t="shared" si="6"/>
+        <v>0.9</v>
+      </c>
+      <c r="K28" t="str">
+        <f t="shared" si="7"/>
+        <v>1.1</v>
+      </c>
+      <c r="L28">
+        <v>1.1175617959999999</v>
+      </c>
+      <c r="M28">
+        <v>51.104926800000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>253</v>
+      </c>
+      <c r="C29">
+        <v>400</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="5"/>
+        <v>1.1</v>
+      </c>
+      <c r="J29" t="str">
+        <f t="shared" si="6"/>
+        <v>0.9</v>
+      </c>
+      <c r="K29" t="str">
+        <f t="shared" si="7"/>
+        <v>1.1</v>
+      </c>
+      <c r="L29">
+        <v>-0.99502239199999998</v>
+      </c>
+      <c r="M29">
+        <v>50.912050280000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>254</v>
+      </c>
+      <c r="C30">
+        <v>400</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="5"/>
+        <v>1.1</v>
+      </c>
+      <c r="J30" t="str">
+        <f t="shared" si="6"/>
+        <v>0.9</v>
+      </c>
+      <c r="K30" t="str">
+        <f t="shared" si="7"/>
+        <v>1.1</v>
+      </c>
+      <c r="L30">
+        <v>-2.265293518</v>
+      </c>
+      <c r="M30">
+        <v>50.996346369999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <f>A30+1</f>
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>255</v>
+      </c>
+      <c r="C31">
+        <v>400</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="5"/>
+        <v>1.1</v>
+      </c>
+      <c r="J31" t="str">
+        <f t="shared" si="6"/>
+        <v>0.9</v>
+      </c>
+      <c r="K31" t="str">
+        <f t="shared" si="7"/>
+        <v>1.1</v>
+      </c>
+      <c r="L31">
+        <v>4.0242000000000004</v>
+      </c>
+      <c r="M31">
+        <v>51.960500000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <f t="shared" ref="A32:A36" si="8">A31+1</f>
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>256</v>
+      </c>
+      <c r="C32">
+        <v>400</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="5"/>
+        <v>1.1</v>
+      </c>
+      <c r="J32" t="str">
+        <f t="shared" si="6"/>
+        <v>0.9</v>
+      </c>
+      <c r="K32" t="str">
+        <f t="shared" si="7"/>
+        <v>1.1</v>
+      </c>
+      <c r="L32">
+        <v>3.1837800000000001</v>
+      </c>
+      <c r="M32">
+        <v>51.32593</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <f t="shared" si="8"/>
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>257</v>
+      </c>
+      <c r="C33">
+        <v>400</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="5"/>
+        <v>1.1</v>
+      </c>
+      <c r="J33" t="str">
+        <f t="shared" si="6"/>
+        <v>0.9</v>
+      </c>
+      <c r="K33" t="str">
+        <f t="shared" si="7"/>
+        <v>1.1</v>
+      </c>
+      <c r="L33">
+        <v>1.78443</v>
+      </c>
+      <c r="M33">
+        <v>50.903010000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <f t="shared" si="8"/>
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>258</v>
+      </c>
+      <c r="C34">
+        <v>400</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H34" t="str">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+      <c r="I34" t="str">
+        <f t="shared" si="5"/>
+        <v>1.1</v>
+      </c>
+      <c r="J34" t="str">
+        <f t="shared" si="6"/>
+        <v>0.9</v>
+      </c>
+      <c r="K34" t="str">
+        <f t="shared" si="7"/>
+        <v>1.1</v>
+      </c>
+      <c r="L34">
+        <v>-0.26217000000000001</v>
+      </c>
+      <c r="M34">
+        <v>49.110790000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <f t="shared" si="8"/>
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>259</v>
+      </c>
+      <c r="C35">
+        <v>400</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H35" t="str">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+      <c r="I35" t="str">
+        <f t="shared" si="5"/>
+        <v>1.1</v>
+      </c>
+      <c r="J35" t="str">
+        <f t="shared" si="6"/>
+        <v>0.9</v>
+      </c>
+      <c r="K35" t="str">
+        <f t="shared" si="7"/>
+        <v>1.1</v>
+      </c>
+      <c r="L35">
+        <v>-6.5697999999999999</v>
+      </c>
+      <c r="M35">
+        <v>53.474629999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <f t="shared" si="8"/>
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>260</v>
+      </c>
+      <c r="C36">
+        <v>400</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" ref="E36" si="9">E35</f>
+        <v>1</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" ref="F36" si="10">F35</f>
+        <v>1</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" ref="G36" si="11">G35</f>
+        <v>0</v>
+      </c>
+      <c r="H36" t="str">
+        <f t="shared" ref="H36" si="12">H35</f>
+        <v>0.9</v>
+      </c>
+      <c r="I36" t="str">
+        <f t="shared" ref="I36" si="13">I35</f>
+        <v>1.1</v>
+      </c>
+      <c r="J36" t="str">
+        <f t="shared" ref="J36" si="14">J35</f>
+        <v>0.9</v>
+      </c>
+      <c r="K36" t="str">
+        <f t="shared" ref="K36" si="15">K35</f>
+        <v>1.1</v>
+      </c>
+      <c r="L36">
+        <v>-5.7704700000000004</v>
+      </c>
+      <c r="M36">
+        <v>54.843200000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" s="5"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" s="5"/>
     </row>
   </sheetData>
@@ -1161,10 +5224,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:F30"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1228,6 +5291,573 @@
         <v>1</v>
       </c>
       <c r="F3">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>157.15299999999999</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>52.384333333333331</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>1171.403</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>390.46766666666667</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>1383.577</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>461.19233333333335</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>402.267</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>134.089</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>356.71899999999999</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>118.90633333333334</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>102.748</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>34.249333333333333</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>484.66</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>161.55333333333334</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>2934.953</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>978.3176666666667</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>1489.1030000000001</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>496.36766666666671</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>3189.6779999999999</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>1063.2259999999999</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>3238.2069999999999</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>1079.4023333333332</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>2583.7289999999998</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>861.24299999999994</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>2353.355</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>784.45166666666671</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>844.33600000000001</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>281.44533333333334</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>2040.0540000000001</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>680.01800000000003</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>4152.415</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>1384.1383333333333</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1138.509</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>379.50299999999999</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1426.63</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>475.54333333333335</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>868.31700000000001</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>289.43900000000002</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>2919.6410000000001</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>973.21366666666665</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>4278.9080000000004</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>1426.3026666666667</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1339.963</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>446.65433333333334</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>9203.9670000000006</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>3067.989</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1605.37</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>535.12333333333333</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>822.73299999999995</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>274.24433333333332</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>89</v>
+      </c>
+      <c r="B29">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>2220.415</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>740.13833333333332</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>2696.1529999999998</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>898.71766666666656</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
         <v>100000</v>
       </c>
     </row>
@@ -1239,10 +5869,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M106"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:M106"/>
+      <selection activeCell="H111" sqref="H111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1293,7 +5923,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1329,6 +5959,4270 @@
         <v>1</v>
       </c>
       <c r="M2">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="F3">
+        <v>0.15</v>
+      </c>
+      <c r="G3">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="H3">
+        <v>132</v>
+      </c>
+      <c r="I3">
+        <v>132</v>
+      </c>
+      <c r="J3">
+        <v>-360</v>
+      </c>
+      <c r="K3">
+        <v>360</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1.2200000000000001E-2</v>
+      </c>
+      <c r="F4">
+        <v>0.02</v>
+      </c>
+      <c r="G4">
+        <v>0.28439999999999999</v>
+      </c>
+      <c r="H4">
+        <v>525</v>
+      </c>
+      <c r="I4">
+        <v>525</v>
+      </c>
+      <c r="J4">
+        <v>-360</v>
+      </c>
+      <c r="K4">
+        <v>360</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="F5">
+        <v>0.15</v>
+      </c>
+      <c r="G5">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="H5">
+        <v>132</v>
+      </c>
+      <c r="I5">
+        <v>132</v>
+      </c>
+      <c r="J5">
+        <v>-360</v>
+      </c>
+      <c r="K5">
+        <v>360</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="F6">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="G6">
+        <v>0.44540000000000002</v>
+      </c>
+      <c r="H6">
+        <v>760</v>
+      </c>
+      <c r="I6">
+        <v>760</v>
+      </c>
+      <c r="J6">
+        <v>-360</v>
+      </c>
+      <c r="K6">
+        <v>360</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="F7">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="G7">
+        <v>0.55449999999999999</v>
+      </c>
+      <c r="H7">
+        <v>760</v>
+      </c>
+      <c r="I7">
+        <v>760</v>
+      </c>
+      <c r="J7">
+        <v>-360</v>
+      </c>
+      <c r="K7">
+        <v>360</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F8">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="G8">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="H8">
+        <v>648</v>
+      </c>
+      <c r="I8">
+        <v>648</v>
+      </c>
+      <c r="J8">
+        <v>-360</v>
+      </c>
+      <c r="K8">
+        <v>360</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F9">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="G9">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="H9">
+        <v>648</v>
+      </c>
+      <c r="I9">
+        <v>648</v>
+      </c>
+      <c r="J9">
+        <v>-360</v>
+      </c>
+      <c r="K9">
+        <v>360</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>2.1099999999999999E-3</v>
+      </c>
+      <c r="F10">
+        <v>1.35E-2</v>
+      </c>
+      <c r="G10">
+        <v>0.1174</v>
+      </c>
+      <c r="H10">
+        <v>1090</v>
+      </c>
+      <c r="I10">
+        <v>1090</v>
+      </c>
+      <c r="J10">
+        <v>-360</v>
+      </c>
+      <c r="K10">
+        <v>360</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="F11">
+        <v>2.3E-2</v>
+      </c>
+      <c r="G11">
+        <v>0.14960000000000001</v>
+      </c>
+      <c r="H11">
+        <v>1500</v>
+      </c>
+      <c r="I11">
+        <v>1500</v>
+      </c>
+      <c r="J11">
+        <v>-360</v>
+      </c>
+      <c r="K11">
+        <v>360</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="F12">
+        <v>2.3E-2</v>
+      </c>
+      <c r="G12">
+        <v>0.17580000000000001</v>
+      </c>
+      <c r="H12">
+        <v>1120</v>
+      </c>
+      <c r="I12">
+        <v>1120</v>
+      </c>
+      <c r="J12">
+        <v>-360</v>
+      </c>
+      <c r="K12">
+        <v>360</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1E-3</v>
+      </c>
+      <c r="F13">
+        <v>2.4E-2</v>
+      </c>
+      <c r="G13">
+        <v>0.125</v>
+      </c>
+      <c r="H13">
+        <v>1000</v>
+      </c>
+      <c r="I13">
+        <v>1000</v>
+      </c>
+      <c r="J13">
+        <v>-360</v>
+      </c>
+      <c r="K13">
+        <v>360</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1E-3</v>
+      </c>
+      <c r="F14">
+        <v>2.4E-2</v>
+      </c>
+      <c r="G14">
+        <v>0.125</v>
+      </c>
+      <c r="H14">
+        <v>1000</v>
+      </c>
+      <c r="I14">
+        <v>1000</v>
+      </c>
+      <c r="J14">
+        <v>-360</v>
+      </c>
+      <c r="K14">
+        <v>360</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="F15">
+        <v>1.35E-2</v>
+      </c>
+      <c r="G15">
+        <v>0.15379999999999999</v>
+      </c>
+      <c r="H15">
+        <v>1090</v>
+      </c>
+      <c r="I15">
+        <v>1090</v>
+      </c>
+      <c r="J15">
+        <v>-360</v>
+      </c>
+      <c r="K15">
+        <v>360</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>8.4999999999999995E-4</v>
+      </c>
+      <c r="F16">
+        <v>1.051E-2</v>
+      </c>
+      <c r="G16">
+        <v>0.38253999999999999</v>
+      </c>
+      <c r="H16">
+        <v>1390</v>
+      </c>
+      <c r="I16">
+        <v>1390</v>
+      </c>
+      <c r="J16">
+        <v>-360</v>
+      </c>
+      <c r="K16">
+        <v>360</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1.5100000000000001E-3</v>
+      </c>
+      <c r="F17">
+        <v>1.6129999999999999E-2</v>
+      </c>
+      <c r="G17">
+        <v>0.59296000000000004</v>
+      </c>
+      <c r="H17">
+        <v>1390</v>
+      </c>
+      <c r="I17">
+        <v>1390</v>
+      </c>
+      <c r="J17">
+        <v>-360</v>
+      </c>
+      <c r="K17">
+        <v>360</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>107</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>11</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1E-4</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>2200</v>
+      </c>
+      <c r="I18">
+        <v>2200</v>
+      </c>
+      <c r="J18">
+        <v>-360</v>
+      </c>
+      <c r="K18">
+        <v>360</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>8</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>7.7999999999999999E-4</v>
+      </c>
+      <c r="F19">
+        <v>8.5199999999999998E-3</v>
+      </c>
+      <c r="G19">
+        <v>7.3700000000000002E-2</v>
+      </c>
+      <c r="H19">
+        <v>2100</v>
+      </c>
+      <c r="I19">
+        <v>2100</v>
+      </c>
+      <c r="J19">
+        <v>-360</v>
+      </c>
+      <c r="K19">
+        <v>360</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>109</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>8</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>7.7999999999999999E-4</v>
+      </c>
+      <c r="F20">
+        <v>8.5199999999999998E-3</v>
+      </c>
+      <c r="G20">
+        <v>0.46350000000000002</v>
+      </c>
+      <c r="H20">
+        <v>2100</v>
+      </c>
+      <c r="I20">
+        <v>2100</v>
+      </c>
+      <c r="J20">
+        <v>-360</v>
+      </c>
+      <c r="K20">
+        <v>360</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>110</v>
+      </c>
+      <c r="B21">
+        <v>6</v>
+      </c>
+      <c r="C21">
+        <v>7</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="F21">
+        <v>1E-4</v>
+      </c>
+      <c r="G21">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="H21">
+        <v>2180</v>
+      </c>
+      <c r="I21">
+        <v>2180</v>
+      </c>
+      <c r="J21">
+        <v>-360</v>
+      </c>
+      <c r="K21">
+        <v>360</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>111</v>
+      </c>
+      <c r="B22">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <v>7</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="F22">
+        <v>1E-4</v>
+      </c>
+      <c r="G22">
+        <v>1.2871999999999999</v>
+      </c>
+      <c r="H22">
+        <v>2500</v>
+      </c>
+      <c r="I22">
+        <v>2500</v>
+      </c>
+      <c r="J22">
+        <v>-360</v>
+      </c>
+      <c r="K22">
+        <v>360</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>112</v>
+      </c>
+      <c r="B23">
+        <v>6</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F23">
+        <v>0.2</v>
+      </c>
+      <c r="G23">
+        <v>0.29389999999999999</v>
+      </c>
+      <c r="H23">
+        <v>950</v>
+      </c>
+      <c r="I23">
+        <v>950</v>
+      </c>
+      <c r="J23">
+        <v>-360</v>
+      </c>
+      <c r="K23">
+        <v>360</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>113</v>
+      </c>
+      <c r="B24">
+        <v>6</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F24">
+        <v>0.2</v>
+      </c>
+      <c r="G24">
+        <v>0.29389999999999999</v>
+      </c>
+      <c r="H24">
+        <v>950</v>
+      </c>
+      <c r="I24">
+        <v>950</v>
+      </c>
+      <c r="J24">
+        <v>-360</v>
+      </c>
+      <c r="K24">
+        <v>360</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>114</v>
+      </c>
+      <c r="B25">
+        <v>7</v>
+      </c>
+      <c r="C25">
+        <v>9</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>8.3000000000000001E-4</v>
+      </c>
+      <c r="F25">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="G25">
+        <v>0.66239999999999999</v>
+      </c>
+      <c r="H25">
+        <v>3070</v>
+      </c>
+      <c r="I25">
+        <v>3070</v>
+      </c>
+      <c r="J25">
+        <v>-360</v>
+      </c>
+      <c r="K25">
+        <v>360</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>115</v>
+      </c>
+      <c r="B26">
+        <v>7</v>
+      </c>
+      <c r="C26">
+        <v>9</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>8.3000000000000001E-4</v>
+      </c>
+      <c r="F26">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="G26">
+        <v>0.66239999999999999</v>
+      </c>
+      <c r="H26">
+        <v>3070</v>
+      </c>
+      <c r="I26">
+        <v>3070</v>
+      </c>
+      <c r="J26">
+        <v>-360</v>
+      </c>
+      <c r="K26">
+        <v>360</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>116</v>
+      </c>
+      <c r="B27">
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <v>10</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>1.64E-3</v>
+      </c>
+      <c r="F27">
+        <v>1.6299999999999999E-2</v>
+      </c>
+      <c r="G27">
+        <v>0.48680000000000001</v>
+      </c>
+      <c r="H27">
+        <v>1390</v>
+      </c>
+      <c r="I27">
+        <v>1390</v>
+      </c>
+      <c r="J27">
+        <v>-360</v>
+      </c>
+      <c r="K27">
+        <v>360</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>117</v>
+      </c>
+      <c r="B28">
+        <v>8</v>
+      </c>
+      <c r="C28">
+        <v>10</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1.64E-3</v>
+      </c>
+      <c r="F28">
+        <v>1.6299999999999999E-2</v>
+      </c>
+      <c r="G28">
+        <v>0.48680000000000001</v>
+      </c>
+      <c r="H28">
+        <v>1390</v>
+      </c>
+      <c r="I28">
+        <v>1390</v>
+      </c>
+      <c r="J28">
+        <v>-360</v>
+      </c>
+      <c r="K28">
+        <v>360</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>118</v>
+      </c>
+      <c r="B29">
+        <v>8</v>
+      </c>
+      <c r="C29">
+        <v>9</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>3.5200000000000001E-3</v>
+      </c>
+      <c r="F29">
+        <v>2.453E-2</v>
+      </c>
+      <c r="G29">
+        <v>0.1898</v>
+      </c>
+      <c r="H29">
+        <v>855</v>
+      </c>
+      <c r="I29">
+        <v>855</v>
+      </c>
+      <c r="J29">
+        <v>-360</v>
+      </c>
+      <c r="K29">
+        <v>360</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>119</v>
+      </c>
+      <c r="B30">
+        <v>8</v>
+      </c>
+      <c r="C30">
+        <v>9</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>4.9199999999999999E-3</v>
+      </c>
+      <c r="F30">
+        <v>3.4299999999999997E-2</v>
+      </c>
+      <c r="G30">
+        <v>0.25019999999999998</v>
+      </c>
+      <c r="H30">
+        <v>775</v>
+      </c>
+      <c r="I30">
+        <v>775</v>
+      </c>
+      <c r="J30">
+        <v>-360</v>
+      </c>
+      <c r="K30">
+        <v>360</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>120</v>
+      </c>
+      <c r="B31">
+        <v>9</v>
+      </c>
+      <c r="C31">
+        <v>14</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>5.2999999999999998E-4</v>
+      </c>
+      <c r="F31">
+        <v>8.3499999999999998E-3</v>
+      </c>
+      <c r="G31">
+        <v>5.3730000000000002</v>
+      </c>
+      <c r="H31">
+        <v>4840</v>
+      </c>
+      <c r="I31">
+        <v>4840</v>
+      </c>
+      <c r="J31">
+        <v>-360</v>
+      </c>
+      <c r="K31">
+        <v>360</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>121</v>
+      </c>
+      <c r="B32">
+        <v>9</v>
+      </c>
+      <c r="C32">
+        <v>14</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>5.1999999999999995E-4</v>
+      </c>
+      <c r="F32">
+        <v>6.3E-3</v>
+      </c>
+      <c r="G32">
+        <v>1.0636000000000001</v>
+      </c>
+      <c r="H32">
+        <v>4020</v>
+      </c>
+      <c r="I32">
+        <v>4020</v>
+      </c>
+      <c r="J32">
+        <v>-360</v>
+      </c>
+      <c r="K32">
+        <v>360</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>122</v>
+      </c>
+      <c r="B33">
+        <v>10</v>
+      </c>
+      <c r="C33">
+        <v>14</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="F33">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="G33">
+        <v>0.39069999999999999</v>
+      </c>
+      <c r="H33">
+        <v>2520</v>
+      </c>
+      <c r="I33">
+        <v>2520</v>
+      </c>
+      <c r="J33">
+        <v>-360</v>
+      </c>
+      <c r="K33">
+        <v>360</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>123</v>
+      </c>
+      <c r="B34">
+        <v>10</v>
+      </c>
+      <c r="C34">
+        <v>14</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>9.8999999999999999E-4</v>
+      </c>
+      <c r="F34">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="G34">
+        <v>0.57379999999999998</v>
+      </c>
+      <c r="H34">
+        <v>2520</v>
+      </c>
+      <c r="I34">
+        <v>2520</v>
+      </c>
+      <c r="J34">
+        <v>-360</v>
+      </c>
+      <c r="K34">
+        <v>360</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>124</v>
+      </c>
+      <c r="B35">
+        <v>10</v>
+      </c>
+      <c r="C35">
+        <v>12</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="F35">
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="G35">
+        <v>0.24979999999999999</v>
+      </c>
+      <c r="H35">
+        <v>2170</v>
+      </c>
+      <c r="I35">
+        <v>2170</v>
+      </c>
+      <c r="J35">
+        <v>-360</v>
+      </c>
+      <c r="K35">
+        <v>360</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>125</v>
+      </c>
+      <c r="B36">
+        <v>10</v>
+      </c>
+      <c r="C36">
+        <v>12</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="F36">
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="G36">
+        <v>0.26640000000000003</v>
+      </c>
+      <c r="H36">
+        <v>2210</v>
+      </c>
+      <c r="I36">
+        <v>2210</v>
+      </c>
+      <c r="J36">
+        <v>-360</v>
+      </c>
+      <c r="K36">
+        <v>360</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>126</v>
+      </c>
+      <c r="B37">
+        <v>10</v>
+      </c>
+      <c r="C37">
+        <v>11</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>1E-4</v>
+      </c>
+      <c r="F37">
+        <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="G37">
+        <v>7.9799999999999996E-2</v>
+      </c>
+      <c r="H37">
+        <v>3320</v>
+      </c>
+      <c r="I37">
+        <v>3320</v>
+      </c>
+      <c r="J37">
+        <v>-360</v>
+      </c>
+      <c r="K37">
+        <v>360</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>127</v>
+      </c>
+      <c r="B38">
+        <v>10</v>
+      </c>
+      <c r="C38">
+        <v>11</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>1E-4</v>
+      </c>
+      <c r="F38">
+        <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="G38">
+        <v>7.9799999999999996E-2</v>
+      </c>
+      <c r="H38">
+        <v>3320</v>
+      </c>
+      <c r="I38">
+        <v>3320</v>
+      </c>
+      <c r="J38">
+        <v>-360</v>
+      </c>
+      <c r="K38">
+        <v>360</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>128</v>
+      </c>
+      <c r="B39">
+        <v>11</v>
+      </c>
+      <c r="C39">
+        <v>12</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>9.6000000000000002E-4</v>
+      </c>
+      <c r="F39">
+        <v>1.078E-2</v>
+      </c>
+      <c r="G39">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="H39">
+        <v>3100</v>
+      </c>
+      <c r="I39">
+        <v>3100</v>
+      </c>
+      <c r="J39">
+        <v>-360</v>
+      </c>
+      <c r="K39">
+        <v>360</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>129</v>
+      </c>
+      <c r="B40">
+        <v>11</v>
+      </c>
+      <c r="C40">
+        <v>17</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>7.3999999999999999E-4</v>
+      </c>
+      <c r="F40">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="G40">
+        <v>0.29110000000000003</v>
+      </c>
+      <c r="H40">
+        <v>2400</v>
+      </c>
+      <c r="I40">
+        <v>2400</v>
+      </c>
+      <c r="J40">
+        <v>-360</v>
+      </c>
+      <c r="K40">
+        <v>360</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>130</v>
+      </c>
+      <c r="B41">
+        <v>11</v>
+      </c>
+      <c r="C41">
+        <v>17</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>9.7000000000000005E-4</v>
+      </c>
+      <c r="F41">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="G41">
+        <v>0.38350000000000001</v>
+      </c>
+      <c r="H41">
+        <v>2400</v>
+      </c>
+      <c r="I41">
+        <v>2400</v>
+      </c>
+      <c r="J41">
+        <v>-360</v>
+      </c>
+      <c r="K41">
+        <v>360</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>131</v>
+      </c>
+      <c r="B42">
+        <v>11</v>
+      </c>
+      <c r="C42">
+        <v>12</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>9.6000000000000002E-4</v>
+      </c>
+      <c r="F42">
+        <v>1.078E-2</v>
+      </c>
+      <c r="G42">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="H42">
+        <v>3100</v>
+      </c>
+      <c r="I42">
+        <v>3100</v>
+      </c>
+      <c r="J42">
+        <v>-360</v>
+      </c>
+      <c r="K42">
+        <v>360</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>132</v>
+      </c>
+      <c r="B43">
+        <v>12</v>
+      </c>
+      <c r="C43">
+        <v>17</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>4.8999999999999998E-4</v>
+      </c>
+      <c r="F43">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="G43">
+        <v>0.1943</v>
+      </c>
+      <c r="H43">
+        <v>2400</v>
+      </c>
+      <c r="I43">
+        <v>2400</v>
+      </c>
+      <c r="J43">
+        <v>-360</v>
+      </c>
+      <c r="K43">
+        <v>360</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>133</v>
+      </c>
+      <c r="B44">
+        <v>12</v>
+      </c>
+      <c r="C44">
+        <v>17</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>8.4000000000000003E-4</v>
+      </c>
+      <c r="F44">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="G44">
+        <v>0.77590000000000003</v>
+      </c>
+      <c r="H44">
+        <v>2400</v>
+      </c>
+      <c r="I44">
+        <v>2400</v>
+      </c>
+      <c r="J44">
+        <v>-360</v>
+      </c>
+      <c r="K44">
+        <v>360</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>134</v>
+      </c>
+      <c r="B45">
+        <v>12</v>
+      </c>
+      <c r="C45">
+        <v>14</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>1.3699999999999999E-3</v>
+      </c>
+      <c r="F45">
+        <v>2.3E-2</v>
+      </c>
+      <c r="G45">
+        <v>0.6643</v>
+      </c>
+      <c r="H45">
+        <v>1240</v>
+      </c>
+      <c r="I45">
+        <v>1240</v>
+      </c>
+      <c r="J45">
+        <v>-360</v>
+      </c>
+      <c r="K45">
+        <v>360</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="M45">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>135</v>
+      </c>
+      <c r="B46">
+        <v>12</v>
+      </c>
+      <c r="C46">
+        <v>14</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>1.64E-3</v>
+      </c>
+      <c r="F46">
+        <v>2.3E-2</v>
+      </c>
+      <c r="G46">
+        <v>0.1104</v>
+      </c>
+      <c r="H46">
+        <v>955</v>
+      </c>
+      <c r="I46">
+        <v>955</v>
+      </c>
+      <c r="J46">
+        <v>-360</v>
+      </c>
+      <c r="K46">
+        <v>360</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+      <c r="M46">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>136</v>
+      </c>
+      <c r="B47">
+        <v>12</v>
+      </c>
+      <c r="C47">
+        <v>13</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>1.07E-3</v>
+      </c>
+      <c r="F47">
+        <v>1.163E-2</v>
+      </c>
+      <c r="G47">
+        <v>1.1745000000000001</v>
+      </c>
+      <c r="H47">
+        <v>1040</v>
+      </c>
+      <c r="I47">
+        <v>1040</v>
+      </c>
+      <c r="J47">
+        <v>-360</v>
+      </c>
+      <c r="K47">
+        <v>360</v>
+      </c>
+      <c r="L47">
+        <v>1</v>
+      </c>
+      <c r="M47">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>137</v>
+      </c>
+      <c r="B48">
+        <v>12</v>
+      </c>
+      <c r="C48">
+        <v>13</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>8.1999999999999998E-4</v>
+      </c>
+      <c r="F48">
+        <v>1.201E-2</v>
+      </c>
+      <c r="G48">
+        <v>1.2124999999999999</v>
+      </c>
+      <c r="H48">
+        <v>1040</v>
+      </c>
+      <c r="I48">
+        <v>1040</v>
+      </c>
+      <c r="J48">
+        <v>-360</v>
+      </c>
+      <c r="K48">
+        <v>360</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="M48">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>138</v>
+      </c>
+      <c r="B49">
+        <v>13</v>
+      </c>
+      <c r="C49">
+        <v>15</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F49">
+        <v>1.6E-2</v>
+      </c>
+      <c r="G49">
+        <v>0.27950000000000003</v>
+      </c>
+      <c r="H49">
+        <v>2580</v>
+      </c>
+      <c r="I49">
+        <v>2580</v>
+      </c>
+      <c r="J49">
+        <v>-360</v>
+      </c>
+      <c r="K49">
+        <v>360</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+      <c r="M49">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>139</v>
+      </c>
+      <c r="B50">
+        <v>13</v>
+      </c>
+      <c r="C50">
+        <v>15</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F50">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G50">
+        <v>0.14660000000000001</v>
+      </c>
+      <c r="H50">
+        <v>625</v>
+      </c>
+      <c r="I50">
+        <v>625</v>
+      </c>
+      <c r="J50">
+        <v>-360</v>
+      </c>
+      <c r="K50">
+        <v>360</v>
+      </c>
+      <c r="L50">
+        <v>1</v>
+      </c>
+      <c r="M50">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>140</v>
+      </c>
+      <c r="B51">
+        <v>14</v>
+      </c>
+      <c r="C51">
+        <v>15</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>3.3E-4</v>
+      </c>
+      <c r="F51">
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="G51">
+        <v>0.35339999999999999</v>
+      </c>
+      <c r="H51">
+        <v>2770</v>
+      </c>
+      <c r="I51">
+        <v>2770</v>
+      </c>
+      <c r="J51">
+        <v>-360</v>
+      </c>
+      <c r="K51">
+        <v>360</v>
+      </c>
+      <c r="L51">
+        <v>1</v>
+      </c>
+      <c r="M51">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>141</v>
+      </c>
+      <c r="B52">
+        <v>14</v>
+      </c>
+      <c r="C52">
+        <v>15</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>1.6000000000000001E-4</v>
+      </c>
+      <c r="F52">
+        <v>1.72E-3</v>
+      </c>
+      <c r="G52">
+        <v>0.3992</v>
+      </c>
+      <c r="H52">
+        <v>5540</v>
+      </c>
+      <c r="I52">
+        <v>5540</v>
+      </c>
+      <c r="J52">
+        <v>-360</v>
+      </c>
+      <c r="K52">
+        <v>360</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="M52">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>142</v>
+      </c>
+      <c r="B53">
+        <v>14</v>
+      </c>
+      <c r="C53">
+        <v>13</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>1.9000000000000001E-4</v>
+      </c>
+      <c r="F53">
+        <v>2.2200000000000002E-3</v>
+      </c>
+      <c r="G53">
+        <v>0.75919999999999999</v>
+      </c>
+      <c r="H53">
+        <v>5000</v>
+      </c>
+      <c r="I53">
+        <v>5000</v>
+      </c>
+      <c r="J53">
+        <v>-360</v>
+      </c>
+      <c r="K53">
+        <v>360</v>
+      </c>
+      <c r="L53">
+        <v>1</v>
+      </c>
+      <c r="M53">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>143</v>
+      </c>
+      <c r="B54">
+        <v>14</v>
+      </c>
+      <c r="C54">
+        <v>13</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>1.8000000000000001E-4</v>
+      </c>
+      <c r="F54">
+        <v>2.2200000000000002E-3</v>
+      </c>
+      <c r="G54">
+        <v>0.55730000000000002</v>
+      </c>
+      <c r="H54">
+        <v>5000</v>
+      </c>
+      <c r="I54">
+        <v>5000</v>
+      </c>
+      <c r="J54">
+        <v>-360</v>
+      </c>
+      <c r="K54">
+        <v>360</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="M54">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>144</v>
+      </c>
+      <c r="B55">
+        <v>15</v>
+      </c>
+      <c r="C55">
+        <v>17</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>5.5999999999999995E-4</v>
+      </c>
+      <c r="F55">
+        <v>1.41E-2</v>
+      </c>
+      <c r="G55">
+        <v>0.4496</v>
+      </c>
+      <c r="H55">
+        <v>2780</v>
+      </c>
+      <c r="I55">
+        <v>2780</v>
+      </c>
+      <c r="J55">
+        <v>-360</v>
+      </c>
+      <c r="K55">
+        <v>360</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="M55">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>145</v>
+      </c>
+      <c r="B56">
+        <v>15</v>
+      </c>
+      <c r="C56">
+        <v>17</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>5.5999999999999995E-4</v>
+      </c>
+      <c r="F56">
+        <v>1.41E-2</v>
+      </c>
+      <c r="G56">
+        <v>0.4496</v>
+      </c>
+      <c r="H56">
+        <v>3820</v>
+      </c>
+      <c r="I56">
+        <v>3820</v>
+      </c>
+      <c r="J56">
+        <v>-360</v>
+      </c>
+      <c r="K56">
+        <v>360</v>
+      </c>
+      <c r="L56">
+        <v>1</v>
+      </c>
+      <c r="M56">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>146</v>
+      </c>
+      <c r="B57">
+        <v>16</v>
+      </c>
+      <c r="C57">
+        <v>15</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>1E-3</v>
+      </c>
+      <c r="F57">
+        <v>1.072E-2</v>
+      </c>
+      <c r="G57">
+        <v>0.2651</v>
+      </c>
+      <c r="H57">
+        <v>2150</v>
+      </c>
+      <c r="I57">
+        <v>2150</v>
+      </c>
+      <c r="J57">
+        <v>-360</v>
+      </c>
+      <c r="K57">
+        <v>360</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
+      <c r="M57">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>147</v>
+      </c>
+      <c r="B58">
+        <v>16</v>
+      </c>
+      <c r="C58">
+        <v>15</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>1E-3</v>
+      </c>
+      <c r="F58">
+        <v>1.072E-2</v>
+      </c>
+      <c r="G58">
+        <v>0.45729999999999998</v>
+      </c>
+      <c r="H58">
+        <v>1890</v>
+      </c>
+      <c r="I58">
+        <v>1890</v>
+      </c>
+      <c r="J58">
+        <v>-360</v>
+      </c>
+      <c r="K58">
+        <v>360</v>
+      </c>
+      <c r="L58">
+        <v>1</v>
+      </c>
+      <c r="M58">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>148</v>
+      </c>
+      <c r="B59">
+        <v>16</v>
+      </c>
+      <c r="C59">
+        <v>21</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>6.8000000000000005E-4</v>
+      </c>
+      <c r="F59">
+        <v>9.7000000000000003E-3</v>
+      </c>
+      <c r="G59">
+        <v>0.45660000000000001</v>
+      </c>
+      <c r="H59">
+        <v>2100</v>
+      </c>
+      <c r="I59">
+        <v>2100</v>
+      </c>
+      <c r="J59">
+        <v>-360</v>
+      </c>
+      <c r="K59">
+        <v>360</v>
+      </c>
+      <c r="L59">
+        <v>1</v>
+      </c>
+      <c r="M59">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>149</v>
+      </c>
+      <c r="B60">
+        <v>16</v>
+      </c>
+      <c r="C60">
+        <v>21</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>6.8999999999999997E-4</v>
+      </c>
+      <c r="F60">
+        <v>9.7000000000000003E-3</v>
+      </c>
+      <c r="G60">
+        <v>0.45739999999999997</v>
+      </c>
+      <c r="H60">
+        <v>2100</v>
+      </c>
+      <c r="I60">
+        <v>2100</v>
+      </c>
+      <c r="J60">
+        <v>-360</v>
+      </c>
+      <c r="K60">
+        <v>360</v>
+      </c>
+      <c r="L60">
+        <v>1</v>
+      </c>
+      <c r="M60">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>150</v>
+      </c>
+      <c r="B61">
+        <v>17</v>
+      </c>
+      <c r="C61">
+        <v>16</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>4.2000000000000002E-4</v>
+      </c>
+      <c r="F61">
+        <v>1.8E-3</v>
+      </c>
+      <c r="G61">
+        <v>0.2349</v>
+      </c>
+      <c r="H61">
+        <v>3100</v>
+      </c>
+      <c r="I61">
+        <v>3100</v>
+      </c>
+      <c r="J61">
+        <v>-360</v>
+      </c>
+      <c r="K61">
+        <v>360</v>
+      </c>
+      <c r="L61">
+        <v>1</v>
+      </c>
+      <c r="M61">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>151</v>
+      </c>
+      <c r="B62">
+        <v>17</v>
+      </c>
+      <c r="C62">
+        <v>16</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>4.2000000000000002E-4</v>
+      </c>
+      <c r="F62">
+        <v>1.8E-3</v>
+      </c>
+      <c r="G62">
+        <v>0.2349</v>
+      </c>
+      <c r="H62">
+        <v>3460</v>
+      </c>
+      <c r="I62">
+        <v>3460</v>
+      </c>
+      <c r="J62">
+        <v>-360</v>
+      </c>
+      <c r="K62">
+        <v>360</v>
+      </c>
+      <c r="L62">
+        <v>1</v>
+      </c>
+      <c r="M62">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>152</v>
+      </c>
+      <c r="B63">
+        <v>17</v>
+      </c>
+      <c r="C63">
+        <v>22</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>1.3799999999999999E-3</v>
+      </c>
+      <c r="F63">
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="G63">
+        <v>0.4829</v>
+      </c>
+      <c r="H63">
+        <v>1970</v>
+      </c>
+      <c r="I63">
+        <v>1970</v>
+      </c>
+      <c r="J63">
+        <v>-360</v>
+      </c>
+      <c r="K63">
+        <v>360</v>
+      </c>
+      <c r="L63">
+        <v>1</v>
+      </c>
+      <c r="M63">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>153</v>
+      </c>
+      <c r="B64">
+        <v>17</v>
+      </c>
+      <c r="C64">
+        <v>22</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>1.17E-3</v>
+      </c>
+      <c r="F64">
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="G64">
+        <v>0.41220000000000001</v>
+      </c>
+      <c r="H64">
+        <v>1970</v>
+      </c>
+      <c r="I64">
+        <v>1970</v>
+      </c>
+      <c r="J64">
+        <v>-360</v>
+      </c>
+      <c r="K64">
+        <v>360</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+      <c r="M64">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>154</v>
+      </c>
+      <c r="B65">
+        <v>19</v>
+      </c>
+      <c r="C65">
+        <v>25</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>3.5E-4</v>
+      </c>
+      <c r="F65">
+        <v>2.3E-3</v>
+      </c>
+      <c r="G65">
+        <v>0.22489999999999999</v>
+      </c>
+      <c r="H65">
+        <v>2780</v>
+      </c>
+      <c r="I65">
+        <v>2780</v>
+      </c>
+      <c r="J65">
+        <v>-360</v>
+      </c>
+      <c r="K65">
+        <v>360</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+      <c r="M65">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>155</v>
+      </c>
+      <c r="B66">
+        <v>19</v>
+      </c>
+      <c r="C66">
+        <v>25</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>3.5E-4</v>
+      </c>
+      <c r="F66">
+        <v>2.3E-3</v>
+      </c>
+      <c r="G66">
+        <v>0.22489999999999999</v>
+      </c>
+      <c r="H66">
+        <v>2780</v>
+      </c>
+      <c r="I66">
+        <v>2780</v>
+      </c>
+      <c r="J66">
+        <v>-360</v>
+      </c>
+      <c r="K66">
+        <v>360</v>
+      </c>
+      <c r="L66">
+        <v>1</v>
+      </c>
+      <c r="M66">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>156</v>
+      </c>
+      <c r="B67">
+        <v>19</v>
+      </c>
+      <c r="C67">
+        <v>18</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>1.7799999999999999E-3</v>
+      </c>
+      <c r="F67">
+        <v>2.1299999999999999E-2</v>
+      </c>
+      <c r="G67">
+        <v>0.66820000000000002</v>
+      </c>
+      <c r="H67">
+        <v>1590</v>
+      </c>
+      <c r="I67">
+        <v>1590</v>
+      </c>
+      <c r="J67">
+        <v>-360</v>
+      </c>
+      <c r="K67">
+        <v>360</v>
+      </c>
+      <c r="L67">
+        <v>1</v>
+      </c>
+      <c r="M67">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>157</v>
+      </c>
+      <c r="B68">
+        <v>19</v>
+      </c>
+      <c r="C68">
+        <v>18</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>1.32E-3</v>
+      </c>
+      <c r="F68">
+        <v>1.43E-2</v>
+      </c>
+      <c r="G68">
+        <v>0.36559999999999998</v>
+      </c>
+      <c r="H68">
+        <v>1590</v>
+      </c>
+      <c r="I68">
+        <v>1590</v>
+      </c>
+      <c r="J68">
+        <v>-360</v>
+      </c>
+      <c r="K68">
+        <v>360</v>
+      </c>
+      <c r="L68">
+        <v>1</v>
+      </c>
+      <c r="M68">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>158</v>
+      </c>
+      <c r="B69">
+        <v>20</v>
+      </c>
+      <c r="C69">
+        <v>15</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>1.4499999999999999E-3</v>
+      </c>
+      <c r="F69">
+        <v>1.8239999999999999E-2</v>
+      </c>
+      <c r="G69">
+        <v>0.91690000000000005</v>
+      </c>
+      <c r="H69">
+        <v>2780</v>
+      </c>
+      <c r="I69">
+        <v>2780</v>
+      </c>
+      <c r="J69">
+        <v>-360</v>
+      </c>
+      <c r="K69">
+        <v>360</v>
+      </c>
+      <c r="L69">
+        <v>1</v>
+      </c>
+      <c r="M69">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>159</v>
+      </c>
+      <c r="B70">
+        <v>20</v>
+      </c>
+      <c r="C70">
+        <v>15</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>1.4499999999999999E-3</v>
+      </c>
+      <c r="F70">
+        <v>1.8239999999999999E-2</v>
+      </c>
+      <c r="G70">
+        <v>0.91690000000000005</v>
+      </c>
+      <c r="H70">
+        <v>2780</v>
+      </c>
+      <c r="I70">
+        <v>2780</v>
+      </c>
+      <c r="J70">
+        <v>-360</v>
+      </c>
+      <c r="K70">
+        <v>360</v>
+      </c>
+      <c r="L70">
+        <v>1</v>
+      </c>
+      <c r="M70">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>160</v>
+      </c>
+      <c r="B71">
+        <v>20</v>
+      </c>
+      <c r="C71">
+        <v>24</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="F71">
+        <v>0.01</v>
+      </c>
+      <c r="G71">
+        <v>0.15859999999999999</v>
+      </c>
+      <c r="H71">
+        <v>2780</v>
+      </c>
+      <c r="I71">
+        <v>2780</v>
+      </c>
+      <c r="J71">
+        <v>-360</v>
+      </c>
+      <c r="K71">
+        <v>360</v>
+      </c>
+      <c r="L71">
+        <v>1</v>
+      </c>
+      <c r="M71">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>161</v>
+      </c>
+      <c r="B72">
+        <v>20</v>
+      </c>
+      <c r="C72">
+        <v>24</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="F72">
+        <v>0.01</v>
+      </c>
+      <c r="G72">
+        <v>0.15859999999999999</v>
+      </c>
+      <c r="H72">
+        <v>2780</v>
+      </c>
+      <c r="I72">
+        <v>2780</v>
+      </c>
+      <c r="J72">
+        <v>-360</v>
+      </c>
+      <c r="K72">
+        <v>360</v>
+      </c>
+      <c r="L72">
+        <v>1</v>
+      </c>
+      <c r="M72">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>162</v>
+      </c>
+      <c r="B73">
+        <v>20</v>
+      </c>
+      <c r="C73">
+        <v>19</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="F73">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="G73">
+        <v>0.4446</v>
+      </c>
+      <c r="H73">
+        <v>2780</v>
+      </c>
+      <c r="I73">
+        <v>2780</v>
+      </c>
+      <c r="J73">
+        <v>-360</v>
+      </c>
+      <c r="K73">
+        <v>360</v>
+      </c>
+      <c r="L73">
+        <v>1</v>
+      </c>
+      <c r="M73">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>163</v>
+      </c>
+      <c r="B74">
+        <v>20</v>
+      </c>
+      <c r="C74">
+        <v>19</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="F74">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="G74">
+        <v>0.7</v>
+      </c>
+      <c r="H74">
+        <v>2780</v>
+      </c>
+      <c r="I74">
+        <v>2780</v>
+      </c>
+      <c r="J74">
+        <v>-360</v>
+      </c>
+      <c r="K74">
+        <v>360</v>
+      </c>
+      <c r="L74">
+        <v>1</v>
+      </c>
+      <c r="M74">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>164</v>
+      </c>
+      <c r="B75">
+        <v>20</v>
+      </c>
+      <c r="C75">
+        <v>18</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75">
+        <v>3.6999999999999999E-4</v>
+      </c>
+      <c r="F75">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="G75">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="H75">
+        <v>3030</v>
+      </c>
+      <c r="I75">
+        <v>3030</v>
+      </c>
+      <c r="J75">
+        <v>-360</v>
+      </c>
+      <c r="K75">
+        <v>360</v>
+      </c>
+      <c r="L75">
+        <v>1</v>
+      </c>
+      <c r="M75">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>165</v>
+      </c>
+      <c r="B76">
+        <v>20</v>
+      </c>
+      <c r="C76">
+        <v>18</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76">
+        <v>3.6999999999999999E-4</v>
+      </c>
+      <c r="F76">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="G76">
+        <v>0.29549999999999998</v>
+      </c>
+      <c r="H76">
+        <v>2780</v>
+      </c>
+      <c r="I76">
+        <v>2780</v>
+      </c>
+      <c r="J76">
+        <v>-360</v>
+      </c>
+      <c r="K76">
+        <v>360</v>
+      </c>
+      <c r="L76">
+        <v>1</v>
+      </c>
+      <c r="M76">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>166</v>
+      </c>
+      <c r="B77">
+        <v>21</v>
+      </c>
+      <c r="C77">
+        <v>15</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77">
+        <v>1.7799999999999999E-3</v>
+      </c>
+      <c r="F77">
+        <v>1.72E-2</v>
+      </c>
+      <c r="G77">
+        <v>0.84030000000000005</v>
+      </c>
+      <c r="H77">
+        <v>2010</v>
+      </c>
+      <c r="I77">
+        <v>2010</v>
+      </c>
+      <c r="J77">
+        <v>-360</v>
+      </c>
+      <c r="K77">
+        <v>360</v>
+      </c>
+      <c r="L77">
+        <v>1</v>
+      </c>
+      <c r="M77">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>167</v>
+      </c>
+      <c r="B78">
+        <v>21</v>
+      </c>
+      <c r="C78">
+        <v>15</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78">
+        <v>1.7799999999999999E-3</v>
+      </c>
+      <c r="F78">
+        <v>1.72E-2</v>
+      </c>
+      <c r="G78">
+        <v>0.627</v>
+      </c>
+      <c r="H78">
+        <v>2010</v>
+      </c>
+      <c r="I78">
+        <v>2010</v>
+      </c>
+      <c r="J78">
+        <v>-360</v>
+      </c>
+      <c r="K78">
+        <v>360</v>
+      </c>
+      <c r="L78">
+        <v>1</v>
+      </c>
+      <c r="M78">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>168</v>
+      </c>
+      <c r="B79">
+        <v>21</v>
+      </c>
+      <c r="C79">
+        <v>24</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79">
+        <v>3.6999999999999999E-4</v>
+      </c>
+      <c r="F79">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="G79">
+        <v>0.4098</v>
+      </c>
+      <c r="H79">
+        <v>3275</v>
+      </c>
+      <c r="I79">
+        <v>3275</v>
+      </c>
+      <c r="J79">
+        <v>-360</v>
+      </c>
+      <c r="K79">
+        <v>360</v>
+      </c>
+      <c r="L79">
+        <v>1</v>
+      </c>
+      <c r="M79">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>169</v>
+      </c>
+      <c r="B80">
+        <v>21</v>
+      </c>
+      <c r="C80">
+        <v>24</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80">
+        <v>3.4000000000000002E-4</v>
+      </c>
+      <c r="F80">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="G80">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="H80">
+        <v>3275</v>
+      </c>
+      <c r="I80">
+        <v>3275</v>
+      </c>
+      <c r="J80">
+        <v>-360</v>
+      </c>
+      <c r="K80">
+        <v>360</v>
+      </c>
+      <c r="L80">
+        <v>1</v>
+      </c>
+      <c r="M80">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>170</v>
+      </c>
+      <c r="B81">
+        <v>21</v>
+      </c>
+      <c r="C81">
+        <v>20</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81">
+        <v>1.9000000000000001E-4</v>
+      </c>
+      <c r="F81">
+        <v>1.1100000000000001E-3</v>
+      </c>
+      <c r="G81">
+        <v>0.1232</v>
+      </c>
+      <c r="H81">
+        <v>2780</v>
+      </c>
+      <c r="I81">
+        <v>2780</v>
+      </c>
+      <c r="J81">
+        <v>-360</v>
+      </c>
+      <c r="K81">
+        <v>360</v>
+      </c>
+      <c r="L81">
+        <v>1</v>
+      </c>
+      <c r="M81">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>171</v>
+      </c>
+      <c r="B82">
+        <v>21</v>
+      </c>
+      <c r="C82">
+        <v>20</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82">
+        <v>4.8000000000000001E-4</v>
+      </c>
+      <c r="F82">
+        <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="G82">
+        <v>0.30409999999999998</v>
+      </c>
+      <c r="H82">
+        <v>2780</v>
+      </c>
+      <c r="I82">
+        <v>2780</v>
+      </c>
+      <c r="J82">
+        <v>-360</v>
+      </c>
+      <c r="K82">
+        <v>360</v>
+      </c>
+      <c r="L82">
+        <v>1</v>
+      </c>
+      <c r="M82">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>172</v>
+      </c>
+      <c r="B83">
+        <v>22</v>
+      </c>
+      <c r="C83">
+        <v>28</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83">
+        <v>1.5100000000000001E-3</v>
+      </c>
+      <c r="F83">
+        <v>1.8200000000000001E-2</v>
+      </c>
+      <c r="G83">
+        <v>0.53</v>
+      </c>
+      <c r="H83">
+        <v>2010</v>
+      </c>
+      <c r="I83">
+        <v>2010</v>
+      </c>
+      <c r="J83">
+        <v>-360</v>
+      </c>
+      <c r="K83">
+        <v>360</v>
+      </c>
+      <c r="L83">
+        <v>1</v>
+      </c>
+      <c r="M83">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>173</v>
+      </c>
+      <c r="B84">
+        <v>22</v>
+      </c>
+      <c r="C84">
+        <v>23</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84">
+        <v>8.5999999999999998E-4</v>
+      </c>
+      <c r="F84">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="G84">
+        <v>0.96220000000000006</v>
+      </c>
+      <c r="H84">
+        <v>2780</v>
+      </c>
+      <c r="I84">
+        <v>2780</v>
+      </c>
+      <c r="J84">
+        <v>-360</v>
+      </c>
+      <c r="K84">
+        <v>360</v>
+      </c>
+      <c r="L84">
+        <v>1</v>
+      </c>
+      <c r="M84">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>174</v>
+      </c>
+      <c r="B85">
+        <v>22</v>
+      </c>
+      <c r="C85">
+        <v>23</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85">
+        <v>2.3000000000000001E-4</v>
+      </c>
+      <c r="F85">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="G85">
+        <v>2.8447</v>
+      </c>
+      <c r="H85">
+        <v>4400</v>
+      </c>
+      <c r="I85">
+        <v>4400</v>
+      </c>
+      <c r="J85">
+        <v>-360</v>
+      </c>
+      <c r="K85">
+        <v>360</v>
+      </c>
+      <c r="L85">
+        <v>1</v>
+      </c>
+      <c r="M85">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>175</v>
+      </c>
+      <c r="B86">
+        <v>22</v>
+      </c>
+      <c r="C86">
+        <v>21</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86">
+        <v>5.5000000000000003E-4</v>
+      </c>
+      <c r="F86">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G86">
+        <v>0.3468</v>
+      </c>
+      <c r="H86">
+        <v>2780</v>
+      </c>
+      <c r="I86">
+        <v>2780</v>
+      </c>
+      <c r="J86">
+        <v>-360</v>
+      </c>
+      <c r="K86">
+        <v>360</v>
+      </c>
+      <c r="L86">
+        <v>1</v>
+      </c>
+      <c r="M86">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>176</v>
+      </c>
+      <c r="B87">
+        <v>22</v>
+      </c>
+      <c r="C87">
+        <v>21</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87">
+        <v>3.8999999999999999E-4</v>
+      </c>
+      <c r="F87">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G87">
+        <v>0.24660000000000001</v>
+      </c>
+      <c r="H87">
+        <v>2770</v>
+      </c>
+      <c r="I87">
+        <v>2770</v>
+      </c>
+      <c r="J87">
+        <v>-360</v>
+      </c>
+      <c r="K87">
+        <v>360</v>
+      </c>
+      <c r="L87">
+        <v>1</v>
+      </c>
+      <c r="M87">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>177</v>
+      </c>
+      <c r="B88">
+        <v>22</v>
+      </c>
+      <c r="C88">
+        <v>28</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88">
+        <v>1.5100000000000001E-3</v>
+      </c>
+      <c r="F88">
+        <v>1.8200000000000001E-2</v>
+      </c>
+      <c r="G88">
+        <v>0.53</v>
+      </c>
+      <c r="H88">
+        <v>2010</v>
+      </c>
+      <c r="I88">
+        <v>2010</v>
+      </c>
+      <c r="J88">
+        <v>-360</v>
+      </c>
+      <c r="K88">
+        <v>360</v>
+      </c>
+      <c r="L88">
+        <v>1</v>
+      </c>
+      <c r="M88">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>178</v>
+      </c>
+      <c r="B89">
+        <v>23</v>
+      </c>
+      <c r="C89">
+        <v>27</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89">
+        <v>6.8000000000000005E-4</v>
+      </c>
+      <c r="F89">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="G89">
+        <v>0.23880000000000001</v>
+      </c>
+      <c r="H89">
+        <v>2210</v>
+      </c>
+      <c r="I89">
+        <v>2210</v>
+      </c>
+      <c r="J89">
+        <v>-360</v>
+      </c>
+      <c r="K89">
+        <v>360</v>
+      </c>
+      <c r="L89">
+        <v>1</v>
+      </c>
+      <c r="M89">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>179</v>
+      </c>
+      <c r="B90">
+        <v>23</v>
+      </c>
+      <c r="C90">
+        <v>24</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+      <c r="E90">
+        <v>1.0399999999999999E-3</v>
+      </c>
+      <c r="F90">
+        <v>9.1000000000000004E-3</v>
+      </c>
+      <c r="G90">
+        <v>0.2918</v>
+      </c>
+      <c r="H90">
+        <v>1390</v>
+      </c>
+      <c r="I90">
+        <v>1390</v>
+      </c>
+      <c r="J90">
+        <v>-360</v>
+      </c>
+      <c r="K90">
+        <v>360</v>
+      </c>
+      <c r="L90">
+        <v>1</v>
+      </c>
+      <c r="M90">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>180</v>
+      </c>
+      <c r="B91">
+        <v>23</v>
+      </c>
+      <c r="C91">
+        <v>24</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91">
+        <v>1.0399999999999999E-3</v>
+      </c>
+      <c r="F91">
+        <v>9.1000000000000004E-3</v>
+      </c>
+      <c r="G91">
+        <v>0.2918</v>
+      </c>
+      <c r="H91">
+        <v>1390</v>
+      </c>
+      <c r="I91">
+        <v>1390</v>
+      </c>
+      <c r="J91">
+        <v>-360</v>
+      </c>
+      <c r="K91">
+        <v>360</v>
+      </c>
+      <c r="L91">
+        <v>1</v>
+      </c>
+      <c r="M91">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>181</v>
+      </c>
+      <c r="B92">
+        <v>23</v>
+      </c>
+      <c r="C92">
+        <v>27</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92">
+        <v>6.8000000000000005E-4</v>
+      </c>
+      <c r="F92">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="G92">
+        <v>0.23880000000000001</v>
+      </c>
+      <c r="H92">
+        <v>2210</v>
+      </c>
+      <c r="I92">
+        <v>2210</v>
+      </c>
+      <c r="J92">
+        <v>-360</v>
+      </c>
+      <c r="K92">
+        <v>360</v>
+      </c>
+      <c r="L92">
+        <v>1</v>
+      </c>
+      <c r="M92">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>182</v>
+      </c>
+      <c r="B93">
+        <v>24</v>
+      </c>
+      <c r="C93">
+        <v>25</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F93">
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="G93">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="H93">
+        <v>6960</v>
+      </c>
+      <c r="I93">
+        <v>6960</v>
+      </c>
+      <c r="J93">
+        <v>-360</v>
+      </c>
+      <c r="K93">
+        <v>360</v>
+      </c>
+      <c r="L93">
+        <v>1</v>
+      </c>
+      <c r="M93">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>183</v>
+      </c>
+      <c r="B94">
+        <v>24</v>
+      </c>
+      <c r="C94">
+        <v>25</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="E94">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F94">
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="G94">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="H94">
+        <v>5540</v>
+      </c>
+      <c r="I94">
+        <v>5540</v>
+      </c>
+      <c r="J94">
+        <v>-360</v>
+      </c>
+      <c r="K94">
+        <v>360</v>
+      </c>
+      <c r="L94">
+        <v>1</v>
+      </c>
+      <c r="M94">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>184</v>
+      </c>
+      <c r="B95">
+        <v>26</v>
+      </c>
+      <c r="C95">
+        <v>25</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F95">
+        <v>5.0299999999999997E-3</v>
+      </c>
+      <c r="G95">
+        <v>0.1797</v>
+      </c>
+      <c r="H95">
+        <v>3100</v>
+      </c>
+      <c r="I95">
+        <v>3100</v>
+      </c>
+      <c r="J95">
+        <v>-360</v>
+      </c>
+      <c r="K95">
+        <v>360</v>
+      </c>
+      <c r="L95">
+        <v>1</v>
+      </c>
+      <c r="M95">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>185</v>
+      </c>
+      <c r="B96">
+        <v>26</v>
+      </c>
+      <c r="C96">
+        <v>25</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="E96">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F96">
+        <v>5.0299999999999997E-3</v>
+      </c>
+      <c r="G96">
+        <v>0.1797</v>
+      </c>
+      <c r="H96">
+        <v>3100</v>
+      </c>
+      <c r="I96">
+        <v>3100</v>
+      </c>
+      <c r="J96">
+        <v>-360</v>
+      </c>
+      <c r="K96">
+        <v>360</v>
+      </c>
+      <c r="L96">
+        <v>1</v>
+      </c>
+      <c r="M96">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>186</v>
+      </c>
+      <c r="B97">
+        <v>27</v>
+      </c>
+      <c r="C97">
+        <v>26</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97">
+        <v>3.8000000000000002E-4</v>
+      </c>
+      <c r="F97">
+        <v>7.11E-3</v>
+      </c>
+      <c r="G97">
+        <v>0.29980000000000001</v>
+      </c>
+      <c r="H97">
+        <v>3070</v>
+      </c>
+      <c r="I97">
+        <v>3070</v>
+      </c>
+      <c r="J97">
+        <v>-360</v>
+      </c>
+      <c r="K97">
+        <v>360</v>
+      </c>
+      <c r="L97">
+        <v>1</v>
+      </c>
+      <c r="M97">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>187</v>
+      </c>
+      <c r="B98">
+        <v>27</v>
+      </c>
+      <c r="C98">
+        <v>26</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98">
+        <v>3.8000000000000002E-4</v>
+      </c>
+      <c r="F98">
+        <v>7.11E-3</v>
+      </c>
+      <c r="G98">
+        <v>0.29980000000000001</v>
+      </c>
+      <c r="H98">
+        <v>3070</v>
+      </c>
+      <c r="I98">
+        <v>3070</v>
+      </c>
+      <c r="J98">
+        <v>-360</v>
+      </c>
+      <c r="K98">
+        <v>360</v>
+      </c>
+      <c r="L98">
+        <v>1</v>
+      </c>
+      <c r="M98">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>188</v>
+      </c>
+      <c r="B99">
+        <v>28</v>
+      </c>
+      <c r="C99">
+        <v>27</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99">
+        <v>5.1000000000000004E-4</v>
+      </c>
+      <c r="F99">
+        <v>7.9600000000000001E-3</v>
+      </c>
+      <c r="G99">
+        <v>0.34</v>
+      </c>
+      <c r="H99">
+        <v>2780</v>
+      </c>
+      <c r="I99">
+        <v>2780</v>
+      </c>
+      <c r="J99">
+        <v>-360</v>
+      </c>
+      <c r="K99">
+        <v>360</v>
+      </c>
+      <c r="L99">
+        <v>1</v>
+      </c>
+      <c r="M99">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>189</v>
+      </c>
+      <c r="B100">
+        <v>28</v>
+      </c>
+      <c r="C100">
+        <v>27</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+      <c r="E100">
+        <v>5.1000000000000004E-4</v>
+      </c>
+      <c r="F100">
+        <v>7.9600000000000001E-3</v>
+      </c>
+      <c r="G100">
+        <v>0.34</v>
+      </c>
+      <c r="H100">
+        <v>2780</v>
+      </c>
+      <c r="I100">
+        <v>2780</v>
+      </c>
+      <c r="J100">
+        <v>-360</v>
+      </c>
+      <c r="K100">
+        <v>360</v>
+      </c>
+      <c r="L100">
+        <v>1</v>
+      </c>
+      <c r="M100">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>190</v>
+      </c>
+      <c r="B101">
+        <v>29</v>
+      </c>
+      <c r="C101">
+        <v>25</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101">
+        <v>5.1000000000000004E-4</v>
+      </c>
+      <c r="F101">
+        <v>7.9600000000000001E-3</v>
+      </c>
+      <c r="G101">
+        <v>0.34</v>
+      </c>
+      <c r="H101">
+        <v>1000</v>
+      </c>
+      <c r="I101">
+        <v>1000</v>
+      </c>
+      <c r="J101">
+        <v>-360</v>
+      </c>
+      <c r="K101">
+        <v>360</v>
+      </c>
+      <c r="L101">
+        <v>1</v>
+      </c>
+      <c r="M101">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>191</v>
+      </c>
+      <c r="B102">
+        <v>33</v>
+      </c>
+      <c r="C102">
+        <v>11</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+      <c r="E102">
+        <v>5.1000000000000004E-4</v>
+      </c>
+      <c r="F102">
+        <v>7.9600000000000001E-3</v>
+      </c>
+      <c r="G102">
+        <v>0.34</v>
+      </c>
+      <c r="H102">
+        <v>600</v>
+      </c>
+      <c r="I102">
+        <v>600</v>
+      </c>
+      <c r="J102">
+        <v>-360</v>
+      </c>
+      <c r="K102">
+        <v>360</v>
+      </c>
+      <c r="L102">
+        <v>1</v>
+      </c>
+      <c r="M102">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>192</v>
+      </c>
+      <c r="B103">
+        <v>34</v>
+      </c>
+      <c r="C103">
+        <v>4</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="E103">
+        <v>5.1000000000000004E-4</v>
+      </c>
+      <c r="F103">
+        <v>7.9600000000000001E-3</v>
+      </c>
+      <c r="G103">
+        <v>0.34</v>
+      </c>
+      <c r="H103">
+        <v>600</v>
+      </c>
+      <c r="I103">
+        <v>600</v>
+      </c>
+      <c r="J103">
+        <v>-360</v>
+      </c>
+      <c r="K103">
+        <v>360</v>
+      </c>
+      <c r="L103">
+        <v>1</v>
+      </c>
+      <c r="M103">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>193</v>
+      </c>
+      <c r="B104">
+        <v>30</v>
+      </c>
+      <c r="C104">
+        <v>26</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+      <c r="E104">
+        <v>5.1000000000000004E-4</v>
+      </c>
+      <c r="F104">
+        <v>7.9600000000000001E-3</v>
+      </c>
+      <c r="G104">
+        <v>0.34</v>
+      </c>
+      <c r="H104">
+        <v>1000</v>
+      </c>
+      <c r="I104">
+        <v>1000</v>
+      </c>
+      <c r="J104">
+        <v>-360</v>
+      </c>
+      <c r="K104">
+        <v>360</v>
+      </c>
+      <c r="L104">
+        <v>1</v>
+      </c>
+      <c r="M104">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>194</v>
+      </c>
+      <c r="B105">
+        <v>31</v>
+      </c>
+      <c r="C105">
+        <v>26</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+      <c r="E105">
+        <v>5.1000000000000004E-4</v>
+      </c>
+      <c r="F105">
+        <v>7.9600000000000001E-3</v>
+      </c>
+      <c r="G105">
+        <v>0.34</v>
+      </c>
+      <c r="H105">
+        <v>2000</v>
+      </c>
+      <c r="I105">
+        <v>2000</v>
+      </c>
+      <c r="J105">
+        <v>-360</v>
+      </c>
+      <c r="K105">
+        <v>360</v>
+      </c>
+      <c r="L105">
+        <v>1</v>
+      </c>
+      <c r="M105">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>195</v>
+      </c>
+      <c r="B106">
+        <v>32</v>
+      </c>
+      <c r="C106">
+        <v>27</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+      <c r="E106">
+        <v>5.1000000000000004E-4</v>
+      </c>
+      <c r="F106">
+        <v>7.9600000000000001E-3</v>
+      </c>
+      <c r="G106">
+        <v>0.34</v>
+      </c>
+      <c r="H106">
+        <v>1000</v>
+      </c>
+      <c r="I106">
+        <v>1000</v>
+      </c>
+      <c r="J106">
+        <v>-360</v>
+      </c>
+      <c r="K106">
+        <v>360</v>
+      </c>
+      <c r="L106">
+        <v>1</v>
+      </c>
+      <c r="M106">
         <v>1E-4</v>
       </c>
     </row>
